--- a/references/markdown_tables.xlsx
+++ b/references/markdown_tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_1_eda_telecom\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_2_eda_rede_social\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A246EAB2-0F9D-4FAA-916A-E2DC98252941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3868C1-D937-4B2C-A7B7-0E10EFFD81B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodologia 5W2H" sheetId="10" r:id="rId1"/>
@@ -18,14 +18,12 @@
     <sheet name="Dicionário Datasets" sheetId="7" r:id="rId3"/>
     <sheet name="Dicionário Stats" sheetId="8" r:id="rId4"/>
     <sheet name="Insights Histplots" sheetId="1" r:id="rId5"/>
-    <sheet name="EDA Grupos" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dicionário Data'!$A$1:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dicionário Data'!$A$1:$D$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dicionário Datasets'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Dicionário Stats'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'EDA Grupos'!$A$1:$C$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Insights Histplots'!$A$1:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Insights Histplots'!$A$1:$D$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
   <si>
     <t>Evidente</t>
   </si>
@@ -68,18 +66,6 @@
     <t>Insight</t>
   </si>
   <si>
-    <t>Grupo 1</t>
-  </si>
-  <si>
-    <t>Grupo 2</t>
-  </si>
-  <si>
-    <t>Qualitativo</t>
-  </si>
-  <si>
-    <t>Quantitativo</t>
-  </si>
-  <si>
     <t>Medida</t>
   </si>
   <si>
@@ -218,9 +204,6 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>dummies</t>
-  </si>
-  <si>
     <t>lean</t>
   </si>
   <si>
@@ -233,9 +216,6 @@
     <t>Dataset tratado, deixando somente as colunas importantes, sem informações redundantes</t>
   </si>
   <si>
-    <t>Dataset criado para fazer o gráfico de correlações</t>
-  </si>
-  <si>
     <t>Número</t>
   </si>
   <si>
@@ -251,9 +231,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>Idade do cliente</t>
-  </si>
-  <si>
     <t>**Questionamento**</t>
   </si>
   <si>
@@ -281,187 +258,106 @@
     <t>**How Much?**&lt;br&gt;Quanto?</t>
   </si>
   <si>
-    <t>A partir dos dados de campanhas piloto, **construir um modelo para segmentação de clientes em campanhas de marketing**</t>
-  </si>
-  <si>
-    <t>O projeto será realizado através da **criação de modelos de clusterização e classificação para a segmentação de clientes**</t>
-  </si>
-  <si>
-    <t>Em uma **empresa de delivery**</t>
-  </si>
-  <si>
     <t>**Matheus Resende** - Cientista de Dados</t>
   </si>
   <si>
-    <t>O investimento estimado para o projeto é de **6.720MU**</t>
-  </si>
-  <si>
-    <t>A data de início do projeto é **01/09/2024**, com um prazo estipulado para conclusão de **30 dias**. Dessa forma, a data prevista para conclusão do projeto é **30/09/2024**</t>
-  </si>
-  <si>
-    <t>O objetivo é que o modelo preveja o comportamento dos consumidores e torne possível aplicá-lo a toda a base de clientes, permitindo que a empresa identifique os clientes que têm maior probabilidade de aceitar a campanha, **otimizando assim os resultados das campanhas e tornando-as altamente lucrativas**</t>
-  </si>
-  <si>
-    <t>CustomerID</t>
-  </si>
-  <si>
-    <t>idade</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>tempo_como_cliente</t>
-  </si>
-  <si>
-    <t>frequencia_uso</t>
-  </si>
-  <si>
-    <t>ligacoes_callcenter</t>
-  </si>
-  <si>
-    <t>dias_atraso</t>
-  </si>
-  <si>
-    <t>assinatura</t>
-  </si>
-  <si>
-    <t>duracao_contrato</t>
-  </si>
-  <si>
-    <t>total_gasto</t>
-  </si>
-  <si>
-    <t>meses_ultima_interacao</t>
-  </si>
-  <si>
-    <t>Gênero do cliente</t>
-  </si>
-  <si>
-    <t>Identificador único de cada cliente</t>
-  </si>
-  <si>
-    <t>Tempo como cliente em meses</t>
-  </si>
-  <si>
-    <t>Número de ligações para o callcenter</t>
-  </si>
-  <si>
-    <t>Dias de atraso no pagamento da assinatura</t>
-  </si>
-  <si>
-    <t>1 se o cliente cancelou a assinatura, 0 caso contrário</t>
-  </si>
-  <si>
-    <t>Total gasto pelo cliente</t>
-  </si>
-  <si>
-    <t>Meses da última interação do cliente</t>
-  </si>
-  <si>
-    <t>Tipo de assinatura</t>
-  </si>
-  <si>
-    <t>Tipo do contrato</t>
-  </si>
-  <si>
-    <t>Frequência de uso</t>
-  </si>
-  <si>
-    <t>cancelou (Target)</t>
-  </si>
-  <si>
-    <t>cancelou</t>
-  </si>
-  <si>
-    <t>Quem cancelou, tende a ter mais de 50 anos (o contrário também)</t>
-  </si>
-  <si>
-    <t>Quem cancelou, tende a ter gasto menos de 500,00 (o contrário também)</t>
-  </si>
-  <si>
-    <t>Quem cancelou, tende a ter um contrato mensal (o contrário também)</t>
-  </si>
-  <si>
-    <t>Quem cancelou, tende a ligar mais de 5 vezes no callcenter  (o contrário também)</t>
-  </si>
-  <si>
-    <t>Quem cancelou, tende a ter mais de 20 dias de atraso no pagamento (o contrário também)</t>
-  </si>
-  <si>
-    <t>Quem cancelou, tende a ficar mais de 15 meses sem interação (o contrário também)</t>
-  </si>
-  <si>
-    <t>Mais de 50 anos</t>
-  </si>
-  <si>
-    <t>Menos de 50 anos</t>
-  </si>
-  <si>
-    <t>Gastou menos de 500,00</t>
-  </si>
-  <si>
-    <t>Possui um contrato mensal</t>
-  </si>
-  <si>
-    <t>Já ligou mais de 5 vezes no callcenter</t>
-  </si>
-  <si>
-    <t>Atrasa o pagamento em mais de 20 dias</t>
-  </si>
-  <si>
-    <t>Fica mais de 15 meses sem interação</t>
-  </si>
-  <si>
-    <t>Gastou mais de 500,00</t>
-  </si>
-  <si>
-    <t>Possui contratos anual e trimestral</t>
-  </si>
-  <si>
-    <t>Já ligou menos de 5 vezes no callcenter</t>
-  </si>
-  <si>
-    <t>Não atrasa o pagamento em mais de 20 dias</t>
-  </si>
-  <si>
-    <t>Fica menos de 15 meses sem interação</t>
-  </si>
-  <si>
-    <t>Gastos &lt; 500</t>
-  </si>
-  <si>
-    <t>Contrato = Mensal</t>
-  </si>
-  <si>
-    <t>Ligações Callcenter &gt; 5</t>
-  </si>
-  <si>
-    <t>Idade &gt; 50</t>
-  </si>
-  <si>
-    <t>Dias de Atraso &gt; 20</t>
-  </si>
-  <si>
-    <t>Meses sem Interação &gt; 15</t>
-  </si>
-  <si>
-    <t>Idade &lt;= 50</t>
-  </si>
-  <si>
-    <t>Gastos &gt;= 500</t>
-  </si>
-  <si>
-    <t>Contrato != Mensal</t>
-  </si>
-  <si>
-    <t>Ligações Callcenter &lt;= 5</t>
-  </si>
-  <si>
-    <t>Dias de Atraso &lt;= 20</t>
-  </si>
-  <si>
-    <t>Meses sem Interação &lt;= 15</t>
+    <t>Interacoes</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Dia_Da_Semana</t>
+  </si>
+  <si>
+    <t>Pessoas</t>
+  </si>
+  <si>
+    <t>Campanhas</t>
+  </si>
+  <si>
+    <t>Carrossel</t>
+  </si>
+  <si>
+    <t>As publicações com mais interações tendem a ser fotos e reels (o contrário também)</t>
+  </si>
+  <si>
+    <t>As publicações com mais interações tendem a serem postadas às Quartas e aos Domingos (o contrário também)</t>
+  </si>
+  <si>
+    <t>As publicações com mais interações tendem a ter pessoas (o contrário também)</t>
+  </si>
+  <si>
+    <t>As publicações com mais interações tendem a ser de campanhas (o contrário também)</t>
+  </si>
+  <si>
+    <t>As publicações com mais interações tendem a não ter carrossel (o contrário também)</t>
+  </si>
+  <si>
+    <t>A data de início do projeto é **01/09/2024**, com um prazo estipulado para conclusão de **15 dias**. Dessa forma, a data prevista para conclusão do projeto é **15/09/2024**</t>
+  </si>
+  <si>
+    <t>O investimento estimado para o projeto é de **R$ 50 mil**</t>
+  </si>
+  <si>
+    <t>Em uma **empresa de mídias sociais**</t>
+  </si>
+  <si>
+    <t>A partir dos dados fornecidos pela equipe de Marketing, **realizar uma ampla análise exploratória em uma empresa de mídias sociais**</t>
+  </si>
+  <si>
+    <t>O objetivo é que com os resultados encontrados no projeto, seja possível **traçar um plano de ação afim de melhorar a performance do engajamento nas redes sociais da empresa**</t>
+  </si>
+  <si>
+    <t>O projeto será realizado através da **realização de uma ampla análise exploratória para identificar as principais melhorias que podem ser feitas nas postagens da empresa**</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Curtidas</t>
+  </si>
+  <si>
+    <t>Comentários</t>
+  </si>
+  <si>
+    <t>Visualizações</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Carrosseis</t>
+  </si>
+  <si>
+    <t>Tipo de postagem</t>
+  </si>
+  <si>
+    <t>Data da postagem</t>
+  </si>
+  <si>
+    <t>Número de curtidas</t>
+  </si>
+  <si>
+    <t>Número de comentários</t>
+  </si>
+  <si>
+    <t>Número de visualizações</t>
+  </si>
+  <si>
+    <t>Tags da postagem</t>
+  </si>
+  <si>
+    <t>Se tem pessoas na postagem S, caso contrário N</t>
+  </si>
+  <si>
+    <t>Se tem carrosseis na postagem S, caso contrário vazio</t>
+  </si>
+  <si>
+    <t>Se é uma postagem de campanha S, caso contrário N</t>
+  </si>
+  <si>
+    <t>Número de interações da postagem</t>
   </si>
 </sst>
 </file>
@@ -511,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,9 +423,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,7 +761,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,47 +773,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>82</v>
@@ -928,18 +821,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -949,11 +842,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FF411B-E20F-4AA6-B9F4-00E2A513EF8A}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,16 +859,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -983,13 +876,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -997,13 +890,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1011,13 +904,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1025,13 +918,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1039,13 +932,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1053,13 +946,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1067,13 +960,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1081,13 +974,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1095,13 +988,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1109,45 +1002,17 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D25" xr:uid="{49FF411B-E20F-4AA6-B9F4-00E2A513EF8A}"/>
+  <autoFilter ref="A1:D22" xr:uid="{49FF411B-E20F-4AA6-B9F4-00E2A513EF8A}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1155,11 +1020,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C807773B-FF7B-4C21-A018-43521299C8DA}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,34 +1035,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1224,211 +1081,211 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1440,11 +1297,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126542E7-60CE-4DA2-940D-E34DD521D00C}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D7"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1470,224 +1327,76 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D7" xr:uid="{126542E7-60CE-4DA2-940D-E34DD521D00C}"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFF9EB2-3B62-49D0-8DB1-0D75070A7105}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="35.109375" customWidth="1"/>
-    <col min="3" max="3" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
+  <autoFilter ref="A1:D6" xr:uid="{126542E7-60CE-4DA2-940D-E34DD521D00C}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
